--- a/Data/CtoS_Orig.xlsx
+++ b/Data/CtoS_Orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\crehb\OneDrive\Research\Undergrad Thesis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c98bf736aafef55/Research/Python/Interconversion-Python/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{45CD8B7E-1A80-4211-835F-A9FFC3462F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2341390B-1CD6-4827-88A0-666E6199BC1D}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{45CD8B7E-1A80-4211-835F-A9FFC3462F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9EAF77A8-F28D-4F3C-B830-4C5A31A2D831}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{697B4D84-7E92-469D-B2DC-C89150EC5EC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{697B4D84-7E92-469D-B2DC-C89150EC5EC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -512,7 +514,7 @@
   <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -550,6 +552,9 @@
         <v>368.88</v>
       </c>
     </row>
+    <row r="4" spans="1:36">
+      <c r="C4" s="19"/>
+    </row>
     <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>0</v>
